--- a/Input Test Data/Url_Browser1.xlsx
+++ b/Input Test Data/Url_Browser1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t xml:space="preserve">https://qa.h2hdigitalrx.com/drx/loginAction.do?function=initialize</t>
   </si>
@@ -275,7 +275,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="92.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="92.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
@@ -340,6 +340,11 @@
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -358,7 +363,8 @@
     <hyperlink ref="A10" r:id="rId7" display="http://192.168.50.102:8080/drx/loginAction.do?function=initialize"/>
     <hyperlink ref="A11" r:id="rId8" display="http://192.168.50.97:7070/new/loginAction.do?function=initialize"/>
     <hyperlink ref="A12" r:id="rId9" display="https://trunk.h2hdigitalrx.com/admin/loginAction.do?function=initialize"/>
-    <hyperlink ref="A16" r:id="rId10" display="http://drxstage.h2hdigitalrx.com/new/"/>
+    <hyperlink ref="A13" r:id="rId10" display="https://trunk.h2hdigitalrx.com/drx/loginAction.do?function=initialize"/>
+    <hyperlink ref="A16" r:id="rId11" display="http://drxstage.h2hdigitalrx.com/new/adminAction.do?function=initialize"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -447,7 +453,7 @@
     <hyperlink ref="A7" r:id="rId7" display="https://www.h2hdigitalrx.com/drx"/>
     <hyperlink ref="A8" r:id="rId8" display="https://www.h2hdigitalrx.com/admin"/>
     <hyperlink ref="A9" r:id="rId9" display="https://www.h2hdigitalrx.com/new"/>
-    <hyperlink ref="D14" r:id="rId10" display="http://drxstage.h2hdigitalrx.com/new/"/>
+    <hyperlink ref="D14" r:id="rId10" display="http://drxstage.h2hdigitalrx.com/new/adminAction.do?function=initialize"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
